--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Lindi_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Lindi_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="1260" windowWidth="17100" windowHeight="14660" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="8500" yWindow="380" windowWidth="17100" windowHeight="14660" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2847,12 +2842,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>148956.68620219518</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>33662.281983045461</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2879,7 @@
         <v>39579.655820449625</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2892,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2912,6 +2907,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2923,12 +2923,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3534,6 +3534,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3545,13 +3550,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3587,7 +3592,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3611,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3625,7 +3630,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3649,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3663,7 +3668,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3682,7 +3687,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3701,7 +3706,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3720,113 +3725,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3838,9 +3848,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3870,6 +3880,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3879,12 +3894,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3904,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3964,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3986,6 +4001,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3997,9 +4017,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4019,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4041,6 +4061,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4052,9 +4077,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4068,7 +4093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4084,6 +4109,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4095,12 +4125,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4120,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4140,7 +4170,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4148,7 +4178,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4156,7 +4186,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4167,6 +4197,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4176,12 +4211,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4201,7 +4236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4221,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4241,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4261,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4283,6 +4318,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4292,13 +4332,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4318,7 +4358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4340,6 +4380,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4349,12 +4394,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4371,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4388,14 +4433,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4404,6 +4449,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4415,13 +4465,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4437,7 +4487,7 @@
         <v>34312.82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4445,7 +4495,7 @@
         <v>34963.299999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4453,7 +4503,7 @@
         <v>35776.399999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4461,7 +4511,7 @@
         <v>36426.879999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4469,7 +4519,7 @@
         <v>37077.360000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4477,7 +4527,7 @@
         <v>37890.46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4485,7 +4535,7 @@
         <v>38703.56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4493,7 +4543,7 @@
         <v>39354.039999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4501,7 +4551,7 @@
         <v>40329.759999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4509,7 +4559,7 @@
         <v>41142.859999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4517,7 +4567,7 @@
         <v>41955.96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4525,7 +4575,7 @@
         <v>42769.06</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4533,7 +4583,7 @@
         <v>43744.78</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4543,6 +4593,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4550,11 +4605,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4562,7 +4617,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4576,7 +4631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4593,7 +4648,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4610,7 +4665,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4624,7 +4679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4641,7 +4696,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4658,12 +4713,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>0.45964245517027885</v>
       </c>
       <c r="C7" s="36">
         <v>0.95</v>
@@ -4675,72 +4730,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4748,6 +4803,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4755,9 +4815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4767,7 +4827,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4792,7 +4852,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4815,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4840,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4864,7 +4924,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4887,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4910,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4933,65 +4993,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -4999,6 +5059,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5010,12 +5075,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5035,7 +5100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5055,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5074,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5094,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5111,14 +5176,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5128,6 +5193,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5139,12 +5209,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5167,7 +5237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5190,7 +5260,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5210,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5233,7 +5303,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5257,6 +5327,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5268,12 +5343,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5319,7 +5394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5339,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5365,7 +5440,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5389,6 +5464,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5400,12 +5480,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5428,7 +5508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5451,7 +5531,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5497,7 +5577,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5521,6 +5601,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5532,9 +5617,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5545,7 +5630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>47</v>
       </c>
@@ -5560,6 +5645,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5571,12 +5661,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5616,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5636,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5656,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5676,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5696,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5736,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5756,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5776,7 +5866,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5796,7 +5886,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5816,7 +5906,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5836,7 +5926,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5856,7 +5946,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5876,7 +5966,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5896,7 +5986,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5916,7 +6006,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5943,6 +6033,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5954,9 +6049,9 @@
       <selection activeCell="C2" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -5979,7 +6074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6007,7 +6102,7 @@
         <v>22.541321020127125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6127,7 @@
         <v>37.173097584524029</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6052,7 +6147,7 @@
         <v>30.643530113297558</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6072,7 +6167,7 @@
         <v>9.6420512820512823</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6095,7 +6190,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6115,7 +6210,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6135,7 +6230,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6155,7 +6250,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6178,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6198,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6218,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6246,6 +6341,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6257,9 +6357,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6270,7 +6370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>1.8827906976744187E-2</v>
       </c>
@@ -6283,6 +6383,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6294,9 +6399,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6316,7 +6421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6336,7 +6441,7 @@
         <v>2.4221186440677971</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6360,6 +6465,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6369,9 +6479,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6394,7 +6504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6417,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6437,7 +6547,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6457,7 +6567,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6477,7 +6587,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6500,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6520,7 +6630,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6540,7 +6650,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6560,7 +6670,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6583,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6603,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6623,7 +6733,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6643,7 +6753,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6666,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6686,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6706,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6726,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6749,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6769,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6789,7 +6899,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6811,6 +6921,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6820,9 +6935,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6845,7 +6960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6868,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6888,7 +7003,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6908,7 +7023,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6928,7 +7043,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6951,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6971,7 +7086,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6991,7 +7106,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7011,7 +7126,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7034,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7054,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7074,7 +7189,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7094,7 +7209,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7117,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7137,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7157,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7177,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7200,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7220,7 +7335,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7240,7 +7355,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7262,5 +7377,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>